--- a/Parts List.xlsx
+++ b/Parts List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ELC4438\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ELC4438\Project\Claymore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEFB7728-24B5-4FDF-A1BF-D6660A7F675B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3DE181-1C74-43E8-8070-B083A9D691A6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,12 +79,6 @@
     <t>Amazon</t>
   </si>
   <si>
-    <t>99 dB Speaker</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/cui-inc/CMS-28528N-L152/102-3841-ND/6137734</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/Portable-RAVPower-22000mAh-Li-polymer-Smartphone/dp/B01G1XH46M?ref_=fsclp_pl_dp_5</t>
   </si>
   <si>
@@ -107,6 +101,12 @@
   </si>
   <si>
     <t>3-30 V to 5-35 V Step Up Voltage Converter</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/cui-inc/CEM-1203-42/102-1153-ND/412412</t>
+  </si>
+  <si>
+    <t>95 dB Speaker</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -601,23 +601,23 @@
         <v>6</v>
       </c>
       <c r="B3" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" s="18">
         <v>10.49</v>
       </c>
       <c r="G3" s="9">
-        <f>F2+3*F3</f>
-        <v>44.82</v>
+        <f>F2+F3</f>
+        <v>23.84</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>10</v>
@@ -628,23 +628,23 @@
         <v>6</v>
       </c>
       <c r="B4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>14</v>
+      <c r="E4" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="F4" s="18">
-        <v>3.7</v>
+        <v>0.83</v>
       </c>
       <c r="G4" s="9">
-        <f>F2+3*F3+F4</f>
-        <v>48.52</v>
+        <f>F2+F3+4*F4</f>
+        <v>27.16</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>10</v>
@@ -658,20 +658,20 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" s="18">
         <v>41.99</v>
       </c>
       <c r="G5" s="9">
-        <f>F2+3*F3+F4+F5</f>
-        <v>90.51</v>
+        <f>F2+F3+4*F4+F5</f>
+        <v>69.150000000000006</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>10</v>
@@ -685,20 +685,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="18">
         <v>13.65</v>
       </c>
       <c r="G6" s="9">
-        <f>F2+3*F3+F4+F5+F6</f>
-        <v>104.16000000000001</v>
+        <f>F2+F3+4*F4+F5+F6</f>
+        <v>82.800000000000011</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>10</v>
@@ -712,20 +712,20 @@
         <v>1</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="18">
         <v>76.13</v>
       </c>
       <c r="G7" s="9">
-        <f>F2+3*F3+F4+F5+F6+F7</f>
-        <v>180.29000000000002</v>
+        <f>F2+F3+4*F4+F5+F6+F7</f>
+        <v>158.93</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>10</v>
@@ -827,8 +827,9 @@
     <hyperlink ref="E3" r:id="rId3" xr:uid="{95981F59-F438-49DD-B55B-C91B1241C5F6}"/>
     <hyperlink ref="E7" r:id="rId4" xr:uid="{316A33A7-887A-4705-BF71-4C7592E31EC5}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{4A65BC23-0915-4E76-80B3-182B4FD0174A}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{CCDC5F1F-C62D-4A0E-B4AC-DA51E0B39F5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
 </worksheet>
 </file>